--- a/codigo organizado/fe_resultados.xlsx
+++ b/codigo organizado/fe_resultados.xlsx
@@ -757,13 +757,13 @@
         <v>103.1724417571397</v>
       </c>
       <c r="F3" t="n">
-        <v>31147.96806127206</v>
+        <v>31147.96806127204</v>
       </c>
       <c r="G3" t="n">
         <v>0.003802301875607938</v>
       </c>
       <c r="H3" t="n">
-        <v>1726.974922219537</v>
+        <v>1726.974922219536</v>
       </c>
       <c r="I3" t="n">
         <v>1726.665096557589</v>
@@ -775,25 +775,25 @@
         <v>1715.444704592204</v>
       </c>
       <c r="L3" t="n">
-        <v>1595.451102437328</v>
+        <v>1595.451102437327</v>
       </c>
       <c r="M3" t="n">
         <v>1431.493313019196</v>
       </c>
       <c r="N3" t="n">
-        <v>1350.130643217388</v>
+        <v>1350.130643217387</v>
       </c>
       <c r="O3" t="n">
         <v>2764.640653506548</v>
       </c>
       <c r="P3" t="n">
-        <v>2046.827629527458</v>
+        <v>2046.827629527459</v>
       </c>
       <c r="Q3" t="n">
-        <v>1336.416047006888</v>
+        <v>1336.416047006887</v>
       </c>
       <c r="R3" t="n">
-        <v>690.7455745280173</v>
+        <v>690.7455745280172</v>
       </c>
       <c r="S3" t="n">
         <v>644.771400790777</v>
@@ -808,28 +808,28 @@
         <v>2444.153210718262</v>
       </c>
       <c r="W3" t="n">
-        <v>1846.479382670004</v>
+        <v>1846.479382670003</v>
       </c>
       <c r="X3" t="n">
         <v>1231.860455188648</v>
       </c>
       <c r="Y3" t="n">
-        <v>415.7199764343238</v>
+        <v>415.7199764343235</v>
       </c>
       <c r="Z3" t="n">
-        <v>372.4925632437195</v>
+        <v>372.4925632437194</v>
       </c>
       <c r="AA3" t="n">
-        <v>406.0270316352957</v>
+        <v>406.0270316352956</v>
       </c>
       <c r="AB3" t="n">
         <v>1017.001725397615</v>
       </c>
       <c r="AC3" t="n">
-        <v>871.4025576155915</v>
+        <v>871.4025576155918</v>
       </c>
       <c r="AD3" t="n">
-        <v>614.2216053410419</v>
+        <v>614.221605341042</v>
       </c>
       <c r="AE3" t="n">
         <v>1541.741485092681</v>
@@ -844,10 +844,10 @@
         <v>555.5567700274221</v>
       </c>
       <c r="AI3" t="n">
-        <v>1180.475667888825</v>
+        <v>1180.475667888826</v>
       </c>
       <c r="AJ3" t="n">
-        <v>2753.510158233061</v>
+        <v>2753.51015823306</v>
       </c>
       <c r="AK3" t="n">
         <v>3252.359629675392</v>
@@ -872,106 +872,106 @@
         <v>6</v>
       </c>
       <c r="E4" t="n">
-        <v>631.6687206806414</v>
+        <v>631.1937530547406</v>
       </c>
       <c r="F4" t="n">
-        <v>565654.8963089891</v>
+        <v>563164.4152231993</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02334827085061585</v>
+        <v>0.02331188053649398</v>
       </c>
       <c r="H4" t="n">
-        <v>1886.360049247313</v>
+        <v>1871.92141304188</v>
       </c>
       <c r="I4" t="n">
-        <v>1835.324790484033</v>
+        <v>1833.626240166519</v>
       </c>
       <c r="J4" t="n">
-        <v>1837.621140406048</v>
+        <v>1807.969841248744</v>
       </c>
       <c r="K4" t="n">
-        <v>1836.567852727797</v>
+        <v>1805.441452839827</v>
       </c>
       <c r="L4" t="n">
-        <v>1792.08678648323</v>
+        <v>1766.019748154577</v>
       </c>
       <c r="M4" t="n">
-        <v>1564.540027196981</v>
+        <v>1545.255278717357</v>
       </c>
       <c r="N4" t="n">
-        <v>1527.865134269819</v>
+        <v>1445.320555797906</v>
       </c>
       <c r="O4" t="n">
-        <v>2719.855498114168</v>
+        <v>2546.533917600893</v>
       </c>
       <c r="P4" t="n">
-        <v>1804.438067141358</v>
+        <v>1772.022744852202</v>
       </c>
       <c r="Q4" t="n">
-        <v>1185.084305896936</v>
+        <v>1138.010043870773</v>
       </c>
       <c r="R4" t="n">
-        <v>854.4408121802604</v>
+        <v>807.9983517791337</v>
       </c>
       <c r="S4" t="n">
-        <v>1113.341016205181</v>
+        <v>1090.759185323392</v>
       </c>
       <c r="T4" t="n">
-        <v>2503.504417246249</v>
+        <v>2531.860297724306</v>
       </c>
       <c r="U4" t="n">
-        <v>3656.136907060338</v>
+        <v>3765.222982575096</v>
       </c>
       <c r="V4" t="n">
-        <v>2458.928709590336</v>
+        <v>2517.704504967558</v>
       </c>
       <c r="W4" t="n">
-        <v>1819.982731704054</v>
+        <v>1874.258168940631</v>
       </c>
       <c r="X4" t="n">
-        <v>1234.738138353438</v>
+        <v>1273.29774791748</v>
       </c>
       <c r="Y4" t="n">
-        <v>792.37436954136</v>
+        <v>811.2536400544128</v>
       </c>
       <c r="Z4" t="n">
-        <v>768.6651027815832</v>
+        <v>725.4065054431707</v>
       </c>
       <c r="AA4" t="n">
-        <v>886.9295678091399</v>
+        <v>854.765737861086</v>
       </c>
       <c r="AB4" t="n">
-        <v>1345.907094672251</v>
+        <v>1254.529731577302</v>
       </c>
       <c r="AC4" t="n">
-        <v>1099.230436568768</v>
+        <v>928.1105300448148</v>
       </c>
       <c r="AD4" t="n">
-        <v>680.0820309661393</v>
+        <v>608.4337275178278</v>
       </c>
       <c r="AE4" t="n">
-        <v>1479.983895367534</v>
+        <v>1441.552681987002</v>
       </c>
       <c r="AF4" t="n">
-        <v>2762.42883849628</v>
+        <v>2834.287131096781</v>
       </c>
       <c r="AG4" t="n">
-        <v>1197.466700664403</v>
+        <v>1187.675705448613</v>
       </c>
       <c r="AH4" t="n">
-        <v>872.0498950708303</v>
+        <v>856.3385636382367</v>
       </c>
       <c r="AI4" t="n">
-        <v>1533.247129534438</v>
+        <v>1529.069429450759</v>
       </c>
       <c r="AJ4" t="n">
-        <v>2910.079880911269</v>
+        <v>2958.341344402355</v>
       </c>
       <c r="AK4" t="n">
-        <v>3418.443434701339</v>
+        <v>3356.764429142333</v>
       </c>
       <c r="AL4" t="n">
-        <v>3118.870446654558</v>
+        <v>2854.658022480543</v>
       </c>
     </row>
     <row r="5">
@@ -990,106 +990,106 @@
         <v>6</v>
       </c>
       <c r="E5" t="n">
-        <v>150.9461222819828</v>
+        <v>154.34334401689</v>
       </c>
       <c r="F5" t="n">
-        <v>48342.1420925007</v>
+        <v>49745.63631579524</v>
       </c>
       <c r="G5" t="n">
-        <v>0.005472604360489589</v>
+        <v>0.005603907519463105</v>
       </c>
       <c r="H5" t="n">
-        <v>1729.561754202453</v>
+        <v>1718.738908813478</v>
       </c>
       <c r="I5" t="n">
-        <v>1716.584651569687</v>
+        <v>1713.908218860287</v>
       </c>
       <c r="J5" t="n">
-        <v>1704.321185328301</v>
+        <v>1697.120607346054</v>
       </c>
       <c r="K5" t="n">
-        <v>1678.589733366372</v>
+        <v>1679.266635255143</v>
       </c>
       <c r="L5" t="n">
-        <v>1555.67388661859</v>
+        <v>1562.830937869536</v>
       </c>
       <c r="M5" t="n">
-        <v>1404.098666044498</v>
+        <v>1430.40331434469</v>
       </c>
       <c r="N5" t="n">
-        <v>1342.710717232882</v>
+        <v>1368.586731745406</v>
       </c>
       <c r="O5" t="n">
-        <v>2537.161542672281</v>
+        <v>2696.46442057991</v>
       </c>
       <c r="P5" t="n">
-        <v>1801.059449884536</v>
+        <v>1960.546976703851</v>
       </c>
       <c r="Q5" t="n">
-        <v>1113.362070808217</v>
+        <v>1272.619804234153</v>
       </c>
       <c r="R5" t="n">
-        <v>562.7625838086975</v>
+        <v>704.1655058672322</v>
       </c>
       <c r="S5" t="n">
-        <v>690.8238228465352</v>
+        <v>658.7026581530736</v>
       </c>
       <c r="T5" t="n">
-        <v>2377.112606919703</v>
+        <v>2259.619944094915</v>
       </c>
       <c r="U5" t="n">
-        <v>3641.882049877329</v>
+        <v>3503.512113949606</v>
       </c>
       <c r="V5" t="n">
-        <v>2553.546138448029</v>
+        <v>2406.957325150707</v>
       </c>
       <c r="W5" t="n">
-        <v>1981.359778421861</v>
+        <v>1822.358740446875</v>
       </c>
       <c r="X5" t="n">
-        <v>1342.132413988678</v>
+        <v>1183.02292352155</v>
       </c>
       <c r="Y5" t="n">
-        <v>432.0678040970326</v>
+        <v>345.8151041834155</v>
       </c>
       <c r="Z5" t="n">
-        <v>330.4793761257421</v>
+        <v>312.3526779886963</v>
       </c>
       <c r="AA5" t="n">
-        <v>352.0571402454629</v>
+        <v>377.5094045226926</v>
       </c>
       <c r="AB5" t="n">
-        <v>942.1764482529042</v>
+        <v>1092.920753593221</v>
       </c>
       <c r="AC5" t="n">
-        <v>811.6372121424216</v>
+        <v>946.6864573670083</v>
       </c>
       <c r="AD5" t="n">
-        <v>509.4523892847525</v>
+        <v>531.3663259465475</v>
       </c>
       <c r="AE5" t="n">
-        <v>1585.37718832503</v>
+        <v>1448.938180634591</v>
       </c>
       <c r="AF5" t="n">
-        <v>3021.689996139619</v>
+        <v>2862.561074856961</v>
       </c>
       <c r="AG5" t="n">
-        <v>1307.516493651907</v>
+        <v>1153.769149128329</v>
       </c>
       <c r="AH5" t="n">
-        <v>657.7476447265832</v>
+        <v>545.3919968235053</v>
       </c>
       <c r="AI5" t="n">
-        <v>1031.371690400573</v>
+        <v>1145.531194577847</v>
       </c>
       <c r="AJ5" t="n">
-        <v>2657.887183844499</v>
+        <v>2817.138902439776</v>
       </c>
       <c r="AK5" t="n">
-        <v>3167.424079595079</v>
+        <v>3326.904024790182</v>
       </c>
       <c r="AL5" t="n">
-        <v>2892.349685393821</v>
+        <v>3051.623682534838</v>
       </c>
     </row>
     <row r="6">
